--- a/src/data/baptismal-test.xlsx
+++ b/src/data/baptismal-test.xlsx
@@ -14,15 +14,42 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="16">
-  <si>
-    <t>page</t>
-  </si>
-  <si>
-    <t>no</t>
-  </si>
-  <si>
-    <t>date</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="23">
+  <si>
+    <t>Page</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Father</t>
+  </si>
+  <si>
+    <t>Mother</t>
+  </si>
+  <si>
+    <t>Birthdate</t>
+  </si>
+  <si>
+    <t>Birth Place</t>
+  </si>
+  <si>
+    <t>Sponsor #1</t>
+  </si>
+  <si>
+    <t>Sponsor #2</t>
+  </si>
+  <si>
+    <t>Priest</t>
+  </si>
+  <si>
+    <t>2017-05-24</t>
   </si>
   <si>
     <t>name</t>
@@ -34,9 +61,6 @@
     <t>mother</t>
   </si>
   <si>
-    <t>birthdate</t>
-  </si>
-  <si>
     <t>birth place</t>
   </si>
   <si>
@@ -44,9 +68,6 @@
   </si>
   <si>
     <t>priest</t>
-  </si>
-  <si>
-    <t>2017-05-24</t>
   </si>
   <si>
     <t>2017-05-25</t>
@@ -69,10 +90,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -83,31 +104,129 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -121,107 +240,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -236,13 +257,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -254,61 +401,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -320,55 +413,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -380,43 +437,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -430,25 +451,51 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -478,21 +525,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -502,28 +534,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -532,148 +553,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1012,7 +1033,7 @@
   <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="7"/>
@@ -1051,10 +1072,10 @@
         <v>8</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:11">
@@ -1065,31 +1086,31 @@
         <v>1</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -1100,31 +1121,31 @@
         <v>1</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -1135,31 +1156,31 @@
         <v>1</v>
       </c>
       <c r="C4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="E4" s="2" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -1170,31 +1191,31 @@
         <v>1</v>
       </c>
       <c r="C5" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>4</v>
-      </c>
       <c r="F5" s="2" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -1205,31 +1226,31 @@
         <v>1</v>
       </c>
       <c r="C6" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>5</v>
-      </c>
       <c r="G6" s="3" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -1240,31 +1261,31 @@
         <v>1</v>
       </c>
       <c r="C7" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H7" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>7</v>
-      </c>
       <c r="I7" s="2" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:11">

--- a/src/data/baptismal-test.xlsx
+++ b/src/data/baptismal-test.xlsx
@@ -91,8 +91,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="20">
@@ -104,6 +104,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
@@ -111,8 +119,85 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -126,123 +211,38 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -263,37 +263,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -305,25 +401,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -335,109 +437,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -448,15 +448,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -492,20 +483,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -528,8 +508,19 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -548,161 +539,167 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1030,276 +1027,258 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K8"/>
+  <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+      <selection activeCell="A1" sqref="A1:K7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="7"/>
-  <cols>
-    <col min="3" max="3" width="14.375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="15.875" style="1" customWidth="1"/>
-    <col min="8" max="10" width="20.5" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="6"/>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" s="2">
+      <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="1">
         <v>1</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="I2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="J2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="K2" s="1" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:11">
-      <c r="A3" s="2">
+      <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="1">
         <v>1</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="H3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="I3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="J3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="K3" s="1" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="2">
+      <c r="A4" s="1">
         <v>1</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="1">
         <v>1</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G4" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="H4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="I4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="J4" s="2" t="s">
+      <c r="J4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="K4" s="2" t="s">
+      <c r="K4" s="1" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="2">
+      <c r="A5" s="1">
         <v>1</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="1">
         <v>1</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="F5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="G5" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="H5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I5" s="2" t="s">
+      <c r="I5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="J5" s="2" t="s">
+      <c r="J5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="K5" s="2" t="s">
+      <c r="K5" s="1" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="2">
+      <c r="A6" s="1">
         <v>1</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="1">
         <v>1</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="F6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G6" s="3" t="s">
+      <c r="G6" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="H6" s="2" t="s">
+      <c r="H6" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I6" s="2" t="s">
+      <c r="I6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="J6" s="2" t="s">
+      <c r="J6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="K6" s="2" t="s">
+      <c r="K6" s="1" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="2">
+      <c r="A7" s="1">
         <v>1</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="1">
         <v>1</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="F7" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G7" s="3" t="s">
+      <c r="G7" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="H7" s="2" t="s">
+      <c r="H7" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I7" s="2" t="s">
+      <c r="I7" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="J7" s="2" t="s">
+      <c r="J7" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="K7" s="2" t="s">
+      <c r="K7" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="8" spans="1:11">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
